--- a/Gantt/gantt-chart_L-version-1 (1).xlsx
+++ b/Gantt/gantt-chart_L-version-1 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7BD440-240F-4121-95C5-A45530FEBEFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11259221-F212-4FC6-BB2A-E90062814FC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$4:$EM$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -2968,13 +2968,6 @@
     <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,10 +2976,6 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2997,55 +2986,66 @@
     <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8"/>
-    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="35" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="34" builtinId="8"/>
+    <cellStyle name="Incorreto" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="40" builtinId="5"/>
-    <cellStyle name="Title" xfId="41" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="38" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="40" builtinId="5"/>
+    <cellStyle name="Saída" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="43" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="41" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="27" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="444">
     <dxf>
@@ -7658,9 +7658,9 @@
   </sheetPr>
   <dimension ref="A1:EM49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A4:EM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7688,27 +7688,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="131"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
     </row>
     <row r="2" spans="1:143" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
@@ -7760,11 +7760,11 @@
       <c r="B4" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="177">
+      <c r="C4" s="180">
         <v>43718</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
       <c r="F4" s="111"/>
       <c r="G4" s="114" t="s">
         <v>74</v>
@@ -7774,394 +7774,394 @@
       </c>
       <c r="I4" s="112"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="174" t="str">
+      <c r="K4" s="172" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="174" t="str">
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="172" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="174" t="str">
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="172" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="175"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="174" t="str">
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="174"/>
+      <c r="AF4" s="172" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="174" t="str">
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="173"/>
+      <c r="AL4" s="174"/>
+      <c r="AM4" s="172" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="175"/>
-      <c r="AO4" s="175"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="174" t="str">
+      <c r="AN4" s="173"/>
+      <c r="AO4" s="173"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="172" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="175"/>
-      <c r="AV4" s="175"/>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="175"/>
-      <c r="AY4" s="175"/>
-      <c r="AZ4" s="176"/>
-      <c r="BA4" s="174" t="str">
+      <c r="AU4" s="173"/>
+      <c r="AV4" s="173"/>
+      <c r="AW4" s="173"/>
+      <c r="AX4" s="173"/>
+      <c r="AY4" s="173"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="172" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="175"/>
-      <c r="BC4" s="175"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="175"/>
-      <c r="BF4" s="175"/>
-      <c r="BG4" s="176"/>
-      <c r="BH4" s="174" t="str">
+      <c r="BB4" s="173"/>
+      <c r="BC4" s="173"/>
+      <c r="BD4" s="173"/>
+      <c r="BE4" s="173"/>
+      <c r="BF4" s="173"/>
+      <c r="BG4" s="174"/>
+      <c r="BH4" s="172" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="175"/>
-      <c r="BJ4" s="175"/>
-      <c r="BK4" s="175"/>
-      <c r="BL4" s="175"/>
-      <c r="BM4" s="175"/>
-      <c r="BN4" s="176"/>
-      <c r="BO4" s="174" t="str">
+      <c r="BI4" s="173"/>
+      <c r="BJ4" s="173"/>
+      <c r="BK4" s="173"/>
+      <c r="BL4" s="173"/>
+      <c r="BM4" s="173"/>
+      <c r="BN4" s="174"/>
+      <c r="BO4" s="172" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="175"/>
-      <c r="BQ4" s="175"/>
-      <c r="BR4" s="175"/>
-      <c r="BS4" s="175"/>
-      <c r="BT4" s="175"/>
-      <c r="BU4" s="176"/>
-      <c r="BV4" s="174" t="str">
+      <c r="BP4" s="173"/>
+      <c r="BQ4" s="173"/>
+      <c r="BR4" s="173"/>
+      <c r="BS4" s="173"/>
+      <c r="BT4" s="173"/>
+      <c r="BU4" s="174"/>
+      <c r="BV4" s="172" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="175"/>
-      <c r="BX4" s="175"/>
-      <c r="BY4" s="175"/>
-      <c r="BZ4" s="175"/>
-      <c r="CA4" s="175"/>
-      <c r="CB4" s="176"/>
-      <c r="CC4" s="174" t="str">
+      <c r="BW4" s="173"/>
+      <c r="BX4" s="173"/>
+      <c r="BY4" s="173"/>
+      <c r="BZ4" s="173"/>
+      <c r="CA4" s="173"/>
+      <c r="CB4" s="174"/>
+      <c r="CC4" s="172" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD4" s="175"/>
-      <c r="CE4" s="175"/>
-      <c r="CF4" s="175"/>
-      <c r="CG4" s="175"/>
-      <c r="CH4" s="175"/>
-      <c r="CI4" s="176"/>
-      <c r="CJ4" s="174" t="str">
+      <c r="CD4" s="173"/>
+      <c r="CE4" s="173"/>
+      <c r="CF4" s="173"/>
+      <c r="CG4" s="173"/>
+      <c r="CH4" s="173"/>
+      <c r="CI4" s="174"/>
+      <c r="CJ4" s="172" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK4" s="175"/>
-      <c r="CL4" s="175"/>
-      <c r="CM4" s="175"/>
-      <c r="CN4" s="175"/>
-      <c r="CO4" s="175"/>
-      <c r="CP4" s="176"/>
-      <c r="CQ4" s="174" t="str">
+      <c r="CK4" s="173"/>
+      <c r="CL4" s="173"/>
+      <c r="CM4" s="173"/>
+      <c r="CN4" s="173"/>
+      <c r="CO4" s="173"/>
+      <c r="CP4" s="174"/>
+      <c r="CQ4" s="172" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR4" s="175"/>
-      <c r="CS4" s="175"/>
-      <c r="CT4" s="175"/>
-      <c r="CU4" s="175"/>
-      <c r="CV4" s="175"/>
-      <c r="CW4" s="176"/>
-      <c r="CX4" s="174" t="str">
+      <c r="CR4" s="173"/>
+      <c r="CS4" s="173"/>
+      <c r="CT4" s="173"/>
+      <c r="CU4" s="173"/>
+      <c r="CV4" s="173"/>
+      <c r="CW4" s="174"/>
+      <c r="CX4" s="172" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY4" s="175"/>
-      <c r="CZ4" s="175"/>
-      <c r="DA4" s="175"/>
-      <c r="DB4" s="175"/>
-      <c r="DC4" s="175"/>
-      <c r="DD4" s="176"/>
-      <c r="DE4" s="174" t="str">
+      <c r="CY4" s="173"/>
+      <c r="CZ4" s="173"/>
+      <c r="DA4" s="173"/>
+      <c r="DB4" s="173"/>
+      <c r="DC4" s="173"/>
+      <c r="DD4" s="174"/>
+      <c r="DE4" s="172" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF4" s="175"/>
-      <c r="DG4" s="175"/>
-      <c r="DH4" s="175"/>
-      <c r="DI4" s="175"/>
-      <c r="DJ4" s="175"/>
-      <c r="DK4" s="176"/>
-      <c r="DL4" s="174" t="str">
+      <c r="DF4" s="173"/>
+      <c r="DG4" s="173"/>
+      <c r="DH4" s="173"/>
+      <c r="DI4" s="173"/>
+      <c r="DJ4" s="173"/>
+      <c r="DK4" s="174"/>
+      <c r="DL4" s="172" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM4" s="175"/>
-      <c r="DN4" s="175"/>
-      <c r="DO4" s="175"/>
-      <c r="DP4" s="175"/>
-      <c r="DQ4" s="175"/>
-      <c r="DR4" s="176"/>
-      <c r="DS4" s="174" t="str">
+      <c r="DM4" s="173"/>
+      <c r="DN4" s="173"/>
+      <c r="DO4" s="173"/>
+      <c r="DP4" s="173"/>
+      <c r="DQ4" s="173"/>
+      <c r="DR4" s="174"/>
+      <c r="DS4" s="172" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT4" s="175"/>
-      <c r="DU4" s="175"/>
-      <c r="DV4" s="175"/>
-      <c r="DW4" s="175"/>
-      <c r="DX4" s="175"/>
-      <c r="DY4" s="176"/>
-      <c r="DZ4" s="174" t="str">
+      <c r="DT4" s="173"/>
+      <c r="DU4" s="173"/>
+      <c r="DV4" s="173"/>
+      <c r="DW4" s="173"/>
+      <c r="DX4" s="173"/>
+      <c r="DY4" s="174"/>
+      <c r="DZ4" s="172" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA4" s="175"/>
-      <c r="EB4" s="175"/>
-      <c r="EC4" s="175"/>
-      <c r="ED4" s="175"/>
-      <c r="EE4" s="175"/>
-      <c r="EF4" s="176"/>
-      <c r="EG4" s="174"/>
-      <c r="EH4" s="175"/>
-      <c r="EI4" s="175"/>
-      <c r="EJ4" s="175"/>
-      <c r="EK4" s="175"/>
-      <c r="EL4" s="175"/>
-      <c r="EM4" s="176"/>
+      <c r="EA4" s="173"/>
+      <c r="EB4" s="173"/>
+      <c r="EC4" s="173"/>
+      <c r="ED4" s="173"/>
+      <c r="EE4" s="173"/>
+      <c r="EF4" s="174"/>
+      <c r="EG4" s="172"/>
+      <c r="EH4" s="173"/>
+      <c r="EI4" s="173"/>
+      <c r="EJ4" s="173"/>
+      <c r="EK4" s="173"/>
+      <c r="EL4" s="173"/>
+      <c r="EM4" s="174"/>
     </row>
     <row r="5" spans="1:143" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110"/>
       <c r="B5" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="113"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="178">
+      <c r="K5" s="175">
         <f>K6</f>
         <v>43717</v>
       </c>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="178">
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="175">
         <f>R6</f>
         <v>43724</v>
       </c>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="178">
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="175">
         <f>Y6</f>
         <v>43731</v>
       </c>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="178">
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="176"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="176"/>
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="175">
         <f>AF6</f>
         <v>43738</v>
       </c>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179"/>
-      <c r="AK5" s="179"/>
-      <c r="AL5" s="180"/>
-      <c r="AM5" s="178">
+      <c r="AG5" s="176"/>
+      <c r="AH5" s="176"/>
+      <c r="AI5" s="176"/>
+      <c r="AJ5" s="176"/>
+      <c r="AK5" s="176"/>
+      <c r="AL5" s="177"/>
+      <c r="AM5" s="175">
         <f>AM6</f>
         <v>43745</v>
       </c>
-      <c r="AN5" s="179"/>
-      <c r="AO5" s="179"/>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="179"/>
-      <c r="AR5" s="179"/>
-      <c r="AS5" s="180"/>
-      <c r="AT5" s="178">
+      <c r="AN5" s="176"/>
+      <c r="AO5" s="176"/>
+      <c r="AP5" s="176"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="176"/>
+      <c r="AS5" s="177"/>
+      <c r="AT5" s="175">
         <f>AT6</f>
         <v>43752</v>
       </c>
-      <c r="AU5" s="179"/>
-      <c r="AV5" s="179"/>
-      <c r="AW5" s="179"/>
-      <c r="AX5" s="179"/>
-      <c r="AY5" s="179"/>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="178">
+      <c r="AU5" s="176"/>
+      <c r="AV5" s="176"/>
+      <c r="AW5" s="176"/>
+      <c r="AX5" s="176"/>
+      <c r="AY5" s="176"/>
+      <c r="AZ5" s="177"/>
+      <c r="BA5" s="175">
         <f>BA6</f>
         <v>43759</v>
       </c>
-      <c r="BB5" s="179"/>
-      <c r="BC5" s="179"/>
-      <c r="BD5" s="179"/>
-      <c r="BE5" s="179"/>
-      <c r="BF5" s="179"/>
-      <c r="BG5" s="180"/>
-      <c r="BH5" s="178">
+      <c r="BB5" s="176"/>
+      <c r="BC5" s="176"/>
+      <c r="BD5" s="176"/>
+      <c r="BE5" s="176"/>
+      <c r="BF5" s="176"/>
+      <c r="BG5" s="177"/>
+      <c r="BH5" s="175">
         <f>BH6</f>
         <v>43766</v>
       </c>
-      <c r="BI5" s="179"/>
-      <c r="BJ5" s="179"/>
-      <c r="BK5" s="179"/>
-      <c r="BL5" s="179"/>
-      <c r="BM5" s="179"/>
-      <c r="BN5" s="180"/>
-      <c r="BO5" s="178">
+      <c r="BI5" s="176"/>
+      <c r="BJ5" s="176"/>
+      <c r="BK5" s="176"/>
+      <c r="BL5" s="176"/>
+      <c r="BM5" s="176"/>
+      <c r="BN5" s="177"/>
+      <c r="BO5" s="175">
         <f>BO6</f>
         <v>43773</v>
       </c>
-      <c r="BP5" s="179"/>
-      <c r="BQ5" s="179"/>
-      <c r="BR5" s="179"/>
-      <c r="BS5" s="179"/>
-      <c r="BT5" s="179"/>
-      <c r="BU5" s="180"/>
-      <c r="BV5" s="178">
+      <c r="BP5" s="176"/>
+      <c r="BQ5" s="176"/>
+      <c r="BR5" s="176"/>
+      <c r="BS5" s="176"/>
+      <c r="BT5" s="176"/>
+      <c r="BU5" s="177"/>
+      <c r="BV5" s="175">
         <f>BV6</f>
         <v>43780</v>
       </c>
-      <c r="BW5" s="179"/>
-      <c r="BX5" s="179"/>
-      <c r="BY5" s="179"/>
-      <c r="BZ5" s="179"/>
-      <c r="CA5" s="179"/>
-      <c r="CB5" s="180"/>
-      <c r="CC5" s="178">
+      <c r="BW5" s="176"/>
+      <c r="BX5" s="176"/>
+      <c r="BY5" s="176"/>
+      <c r="BZ5" s="176"/>
+      <c r="CA5" s="176"/>
+      <c r="CB5" s="177"/>
+      <c r="CC5" s="175">
         <f>CC6</f>
         <v>43787</v>
       </c>
-      <c r="CD5" s="179"/>
-      <c r="CE5" s="179"/>
-      <c r="CF5" s="179"/>
-      <c r="CG5" s="179"/>
-      <c r="CH5" s="179"/>
-      <c r="CI5" s="180"/>
-      <c r="CJ5" s="178">
+      <c r="CD5" s="176"/>
+      <c r="CE5" s="176"/>
+      <c r="CF5" s="176"/>
+      <c r="CG5" s="176"/>
+      <c r="CH5" s="176"/>
+      <c r="CI5" s="177"/>
+      <c r="CJ5" s="175">
         <f>CJ6</f>
         <v>43794</v>
       </c>
-      <c r="CK5" s="179"/>
-      <c r="CL5" s="179"/>
-      <c r="CM5" s="179"/>
-      <c r="CN5" s="179"/>
-      <c r="CO5" s="179"/>
-      <c r="CP5" s="180"/>
-      <c r="CQ5" s="178">
+      <c r="CK5" s="176"/>
+      <c r="CL5" s="176"/>
+      <c r="CM5" s="176"/>
+      <c r="CN5" s="176"/>
+      <c r="CO5" s="176"/>
+      <c r="CP5" s="177"/>
+      <c r="CQ5" s="175">
         <f>CQ6</f>
         <v>43801</v>
       </c>
-      <c r="CR5" s="179"/>
-      <c r="CS5" s="179"/>
-      <c r="CT5" s="179"/>
-      <c r="CU5" s="179"/>
-      <c r="CV5" s="179"/>
-      <c r="CW5" s="180"/>
-      <c r="CX5" s="178">
+      <c r="CR5" s="176"/>
+      <c r="CS5" s="176"/>
+      <c r="CT5" s="176"/>
+      <c r="CU5" s="176"/>
+      <c r="CV5" s="176"/>
+      <c r="CW5" s="177"/>
+      <c r="CX5" s="175">
         <f>CX6</f>
         <v>43808</v>
       </c>
-      <c r="CY5" s="179"/>
-      <c r="CZ5" s="179"/>
-      <c r="DA5" s="179"/>
-      <c r="DB5" s="179"/>
-      <c r="DC5" s="179"/>
-      <c r="DD5" s="180"/>
-      <c r="DE5" s="178">
+      <c r="CY5" s="176"/>
+      <c r="CZ5" s="176"/>
+      <c r="DA5" s="176"/>
+      <c r="DB5" s="176"/>
+      <c r="DC5" s="176"/>
+      <c r="DD5" s="177"/>
+      <c r="DE5" s="175">
         <f>DE6</f>
         <v>43815</v>
       </c>
-      <c r="DF5" s="179"/>
-      <c r="DG5" s="179"/>
-      <c r="DH5" s="179"/>
-      <c r="DI5" s="179"/>
-      <c r="DJ5" s="179"/>
-      <c r="DK5" s="180"/>
-      <c r="DL5" s="178">
+      <c r="DF5" s="176"/>
+      <c r="DG5" s="176"/>
+      <c r="DH5" s="176"/>
+      <c r="DI5" s="176"/>
+      <c r="DJ5" s="176"/>
+      <c r="DK5" s="177"/>
+      <c r="DL5" s="175">
         <f>DL6</f>
         <v>43822</v>
       </c>
-      <c r="DM5" s="179"/>
-      <c r="DN5" s="179"/>
-      <c r="DO5" s="179"/>
-      <c r="DP5" s="179"/>
-      <c r="DQ5" s="179"/>
-      <c r="DR5" s="180"/>
-      <c r="DS5" s="178">
+      <c r="DM5" s="176"/>
+      <c r="DN5" s="176"/>
+      <c r="DO5" s="176"/>
+      <c r="DP5" s="176"/>
+      <c r="DQ5" s="176"/>
+      <c r="DR5" s="177"/>
+      <c r="DS5" s="175">
         <f>DS6</f>
         <v>43829</v>
       </c>
-      <c r="DT5" s="179"/>
-      <c r="DU5" s="179"/>
-      <c r="DV5" s="179"/>
-      <c r="DW5" s="179"/>
-      <c r="DX5" s="179"/>
-      <c r="DY5" s="180"/>
-      <c r="DZ5" s="178">
+      <c r="DT5" s="176"/>
+      <c r="DU5" s="176"/>
+      <c r="DV5" s="176"/>
+      <c r="DW5" s="176"/>
+      <c r="DX5" s="176"/>
+      <c r="DY5" s="177"/>
+      <c r="DZ5" s="175">
         <f>DZ6</f>
         <v>43836</v>
       </c>
-      <c r="EA5" s="179"/>
-      <c r="EB5" s="179"/>
-      <c r="EC5" s="179"/>
-      <c r="ED5" s="179"/>
-      <c r="EE5" s="179"/>
-      <c r="EF5" s="180"/>
-      <c r="EG5" s="178"/>
-      <c r="EH5" s="179"/>
-      <c r="EI5" s="179"/>
-      <c r="EJ5" s="179"/>
-      <c r="EK5" s="179"/>
-      <c r="EL5" s="179"/>
-      <c r="EM5" s="180"/>
+      <c r="EA5" s="176"/>
+      <c r="EB5" s="176"/>
+      <c r="EC5" s="176"/>
+      <c r="ED5" s="176"/>
+      <c r="EE5" s="176"/>
+      <c r="EF5" s="177"/>
+      <c r="EG5" s="175"/>
+      <c r="EH5" s="176"/>
+      <c r="EI5" s="176"/>
+      <c r="EJ5" s="176"/>
+      <c r="EK5" s="176"/>
+      <c r="EL5" s="176"/>
+      <c r="EM5" s="177"/>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
@@ -9723,7 +9723,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I11" s="64">
         <f>IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
@@ -9884,7 +9884,7 @@
         <v>106</v>
       </c>
       <c r="H12" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="64">
         <f t="shared" si="83"/>
@@ -10683,7 +10683,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="64">
         <f t="shared" si="83"/>
@@ -10999,7 +10999,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="64">
         <f t="shared" si="83"/>
@@ -11160,7 +11160,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="64">
         <f t="shared" si="83"/>
@@ -11321,7 +11321,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="64">
         <f t="shared" si="83"/>
@@ -11482,7 +11482,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="64">
         <f t="shared" si="83"/>
@@ -11643,7 +11643,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="64">
         <f t="shared" si="83"/>
@@ -11959,7 +11959,7 @@
         <v>30</v>
       </c>
       <c r="H25" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="64">
         <f t="shared" si="83"/>
@@ -12281,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="63">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="64">
         <f t="shared" si="83"/>
@@ -12442,7 +12442,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="64">
         <f t="shared" si="83"/>
@@ -12764,7 +12764,9 @@
       <c r="G30" s="62">
         <v>10</v>
       </c>
-      <c r="H30" s="63"/>
+      <c r="H30" s="63">
+        <v>0.1</v>
+      </c>
       <c r="I30" s="80">
         <f t="shared" si="83"/>
         <v>7</v>
@@ -12924,7 +12926,9 @@
       <c r="G31" s="62">
         <v>35</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="63">
+        <v>0.85</v>
+      </c>
       <c r="I31" s="80">
         <f t="shared" si="83"/>
         <v>25</v>
@@ -13084,7 +13088,9 @@
       <c r="G32" s="62">
         <v>20</v>
       </c>
-      <c r="H32" s="63"/>
+      <c r="H32" s="63">
+        <v>1</v>
+      </c>
       <c r="I32" s="80">
         <f t="shared" si="83"/>
         <v>15</v>
@@ -15862,12 +15868,25 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="41">
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="EG4:EM4"/>
     <mergeCell ref="EG5:EM5"/>
     <mergeCell ref="BO4:BU4"/>
@@ -15884,25 +15903,12 @@
     <mergeCell ref="CX5:DD5"/>
     <mergeCell ref="DE4:DK4"/>
     <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="DZ5:EF5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H29 H41:H48">
@@ -18009,10 +18015,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A42:B42 A44:B44 B43 E13 E18 E24 E41:H44 G10 H13 G18:H18 G24:H24 H17 G45 G46:G47 G48 H19:H22 A41 H28 H25 H26 H27" unlockedFormula="1"/>
+    <ignoredError sqref="H9 A42:B42 A44:B44 B43 E13 E18 E24 E41:H44 G10 H13 G18:H18 G24:H24 G45 G46:G47 G48 A41 H26" unlockedFormula="1"/>
     <ignoredError sqref="A24 A18 A13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
